--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Date:</t>
   </si>
@@ -88,55 +88,6 @@
   </si>
   <si>
     <t>CERTIFICATE OF COMPLETION OF MAKING GOOD DEFECTS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In accordance with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Clause 8.10.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of the Agreement, it is in my opinion that the Defects has been made good on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>15/05/2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> . </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRACT NO: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> been made good on</t>
   </si>
 </sst>
 </file>
@@ -277,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,17 +245,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,35 +263,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +762,7 @@
   <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AV36" sqref="AV36"/>
+      <selection activeCell="X14" sqref="X14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,26 +794,26 @@
         <v>2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
@@ -907,144 +855,142 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="2:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
     </row>
     <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:40" x14ac:dyDescent="0.2">
@@ -1056,13 +1002,13 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1076,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
@@ -1102,13 +1048,13 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1129,26 +1075,26 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1233,13 +1179,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
@@ -1271,13 +1217,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
@@ -1309,13 +1255,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
@@ -1347,13 +1293,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
@@ -1416,13 +1362,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
@@ -1454,13 +1400,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1499,92 +1445,92 @@
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
     </row>
     <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
@@ -1613,146 +1559,144 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
     </row>
     <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-    </row>
-    <row r="34" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+    </row>
+    <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-    </row>
-    <row r="35" spans="2:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+    </row>
+    <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1785,7 +1729,7 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1818,7 +1762,7 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1851,7 +1795,7 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1884,62 +1828,62 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+    </row>
+    <row r="44" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J32:P32"/>
+  <mergeCells count="26">
     <mergeCell ref="B43:O43"/>
     <mergeCell ref="B46:O46"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="B31:AG33"/>
     <mergeCell ref="AH5:AN5"/>
     <mergeCell ref="AH6:AN6"/>
     <mergeCell ref="B9:AF9"/>
     <mergeCell ref="B10:AG11"/>
     <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="AH15:AN15"/>
@@ -1954,8 +1898,6 @@
     <mergeCell ref="AH26:AN26"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="B31:AG31"/>
-    <mergeCell ref="B32:I32"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" orientation="portrait" r:id="rId1"/>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +117,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -233,9 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -248,10 +242,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -263,36 +281,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,7 +322,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -762,7 +754,7 @@
   <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14:AF14"/>
+      <selection activeCell="B9" sqref="B9:AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,13 +768,13 @@
   <sheetData>
     <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
     </row>
     <row r="4" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
@@ -794,26 +786,26 @@
         <v>2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
@@ -855,142 +847,142 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
     </row>
     <row r="12" spans="2:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
     </row>
     <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:40" x14ac:dyDescent="0.2">
@@ -1002,13 +994,13 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1022,22 +1014,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
@@ -1048,13 +1040,13 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1075,26 +1067,26 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1179,13 +1171,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
@@ -1217,13 +1209,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
@@ -1255,13 +1247,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
@@ -1293,13 +1285,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
@@ -1362,13 +1354,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
@@ -1400,13 +1392,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1445,92 +1437,92 @@
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
     </row>
     <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
     </row>
     <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
@@ -1559,142 +1551,142 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
     </row>
     <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
     </row>
     <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
@@ -1829,20 +1821,20 @@
       <c r="AF38" s="9"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -1850,20 +1842,20 @@
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
@@ -1872,18 +1864,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="B31:AG33"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="AH15:AN15"/>
@@ -1898,6 +1878,18 @@
     <mergeCell ref="AH26:AN26"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="B31:AG33"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" orientation="portrait" r:id="rId1"/>
@@ -1915,6 +1907,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2131,12 +2129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2146,6 +2138,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2162,21 +2171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date:</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>CERTIFICATE OF COMPLETION OF MAKING GOOD DEFECTS</t>
+  </si>
+  <si>
+    <t>CONTRACT NO: PWD/HO/B130/2019</t>
   </si>
 </sst>
 </file>
@@ -242,35 +245,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,7 +260,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +327,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AF9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -768,13 +771,13 @@
   <sheetData>
     <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
     </row>
     <row r="4" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
@@ -786,26 +789,26 @@
         <v>2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
@@ -847,142 +850,144 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="2:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:40" x14ac:dyDescent="0.2">
@@ -994,13 +999,13 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1014,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
@@ -1040,13 +1045,13 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1067,26 +1072,26 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1171,13 +1176,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
@@ -1209,13 +1214,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
@@ -1247,13 +1252,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
@@ -1285,13 +1290,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
@@ -1354,13 +1359,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
@@ -1392,13 +1397,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1437,92 +1442,92 @@
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
     </row>
     <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
     </row>
     <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
@@ -1551,142 +1556,142 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
     </row>
     <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
     </row>
     <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
@@ -1821,20 +1826,20 @@
       <c r="AF38" s="9"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -1842,20 +1847,20 @@
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
@@ -1864,6 +1869,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="B31:AG33"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="AH15:AN15"/>
@@ -1878,18 +1895,6 @@
     <mergeCell ref="AH26:AN26"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="B31:AG33"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" orientation="portrait" r:id="rId1"/>
@@ -1898,18 +1903,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2130,14 +2135,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2150,6 +2147,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Form WG" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Date:</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Superintending Officer</t>
   </si>
   <si>
-    <t>Jurutera Bahagian</t>
-  </si>
-  <si>
     <t>FORM WG</t>
   </si>
   <si>
@@ -91,6 +88,36 @@
   </si>
   <si>
     <t>CONTRACT NO: PWD/HO/B130/2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In accordance with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clause 8.10.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the Agreement, it is in my opinion that the Defects has</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> been made good on </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,9 +272,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,35 +317,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,7 +369,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,65 +800,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
+    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="22" t="s">
-        <v>14</v>
+    <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AB2" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-    </row>
-    <row r="4" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -849,148 +893,148 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>16</v>
+    <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>15</v>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+    </row>
+    <row r="12" spans="2:40" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-    </row>
-    <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+    </row>
+    <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -999,13 +1043,13 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1019,24 +1063,24 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1045,13 +1089,13 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1072,26 +1116,26 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1113,7 +1157,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1146,7 +1190,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1176,15 +1220,15 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1214,15 +1258,15 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1252,15 +1296,15 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1290,15 +1334,15 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1329,7 +1373,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1359,15 +1403,15 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1397,15 +1441,15 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1438,98 +1482,98 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-    </row>
-    <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+    </row>
+    <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-    </row>
-    <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+    </row>
+    <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1555,145 +1599,151 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-    </row>
-    <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+    </row>
+    <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-    </row>
-    <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="B32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-    </row>
-    <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+    </row>
+    <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1726,7 +1776,7 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1759,7 +1809,7 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1792,7 +1842,7 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1825,62 +1875,61 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-    </row>
-    <row r="44" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="B31:AG33"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
+  <mergeCells count="29">
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="AH15:AN15"/>
@@ -1895,6 +1944,21 @@
     <mergeCell ref="AH26:AN26"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="I32:L32"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" orientation="portrait" r:id="rId1"/>
@@ -1909,15 +1973,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2134,6 +2189,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
   <ds:schemaRefs>
@@ -2152,14 +2216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2176,4 +2232,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Form WG" sheetId="5" r:id="rId1"/>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,7 +272,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,47 +323,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -369,7 +366,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D9CD89-5D8A-479D-BE0A-1A2D75D1626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,66 +798,66 @@
   <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="B47" sqref="B47:O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
+    <col min="2" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="AB2" s="15" t="s">
+    <row r="1" spans="2:40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+    </row>
+    <row r="4" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:40" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -893,148 +890,148 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-    </row>
-    <row r="12" spans="2:40" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+    </row>
+    <row r="12" spans="2:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-    </row>
-    <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+    </row>
+    <row r="13" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1043,13 +1040,13 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1063,24 +1060,24 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1089,13 +1086,13 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1116,26 +1113,26 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1157,7 +1154,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1190,7 +1187,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1220,15 +1217,15 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1258,15 +1255,15 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1296,15 +1293,15 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1334,15 +1331,15 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1373,7 +1370,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1403,15 +1400,15 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1441,15 +1438,15 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1482,98 +1479,98 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-    </row>
-    <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+    </row>
+    <row r="27" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-    </row>
-    <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="1:40" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1599,151 +1596,151 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-    </row>
-    <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+    </row>
+    <row r="32" spans="1:40" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="28" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+    </row>
+    <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-    </row>
-    <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+    </row>
+    <row r="35" spans="2:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1776,7 +1773,7 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1809,7 +1806,7 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1842,7 +1839,7 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1875,61 +1872,74 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+    </row>
+    <row r="44" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="AH15:AN15"/>
@@ -1946,19 +1956,6 @@
     <mergeCell ref="I28:AF28"/>
     <mergeCell ref="B31:AG31"/>
     <mergeCell ref="B32:H32"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="B47:O47"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="I32:L32"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" orientation="portrait" r:id="rId1"/>
@@ -1973,6 +1970,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2189,15 +2195,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
   <ds:schemaRefs>
@@ -2216,6 +2213,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2232,12 +2237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>